--- a/Data/Input/Monthly/Fields to be added on UI by Huphin_Monthly_01-03-2023.xlsx
+++ b/Data/Input/Monthly/Fields to be added on UI by Huphin_Monthly_01-03-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\Monthly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23671970-A365-4A73-92AB-0742542183E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6883CB72-EE0F-4760-9672-95B9CE61DEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="4200" windowWidth="7500" windowHeight="6000" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyCust (2)" sheetId="13" r:id="rId1"/>
@@ -2910,8 +2910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80626F-4EE6-4A1B-BAC6-4FE9B121A377}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:Z2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6624,14 +6624,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0f2ac075-41ad-49ac-8f8f-deebc546c741" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e73b1f32-535a-40bf-95de-5e4e52a9bea4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6872,23 +6870,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0f2ac075-41ad-49ac-8f8f-deebc546c741" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e73b1f32-535a-40bf-95de-5e4e52a9bea4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62BC39A-8D9F-46C5-A39F-3DA2DBFCAA0D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12142E21-A9D0-4ACC-8432-E8BE1703AF0C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7ca91ce6-05a1-48e4-983f-64c4c6f37fd7"/>
-    <ds:schemaRef ds:uri="29b4f98f-adcf-4594-ae80-98d9ae39ab47"/>
-    <ds:schemaRef ds:uri="0f2ac075-41ad-49ac-8f8f-deebc546c741"/>
-    <ds:schemaRef ds:uri="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6913,9 +6908,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12142E21-A9D0-4ACC-8432-E8BE1703AF0C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62BC39A-8D9F-46C5-A39F-3DA2DBFCAA0D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7ca91ce6-05a1-48e4-983f-64c4c6f37fd7"/>
+    <ds:schemaRef ds:uri="29b4f98f-adcf-4594-ae80-98d9ae39ab47"/>
+    <ds:schemaRef ds:uri="0f2ac075-41ad-49ac-8f8f-deebc546c741"/>
+    <ds:schemaRef ds:uri="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>